--- a/spring-boot-web/src/main/resources/static/template/贫困户导入模板.xlsx
+++ b/spring-boot-web/src/main/resources/static/template/贫困户导入模板.xlsx
@@ -19,13 +19,13 @@
     <t>**县贫困户名录</t>
   </si>
   <si>
-    <t>序号</t>
+    <t>序号（必填）</t>
   </si>
   <si>
     <t>县名</t>
   </si>
   <si>
-    <t>姓名</t>
+    <t>姓名（必填）</t>
   </si>
   <si>
     <r>
@@ -36,9 +36,9 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
-      <t>位身份证</t>
+      <t>位身份证（必填）</t>
     </r>
   </si>
   <si>
@@ -55,6 +55,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <charset val="0"/>
+      </rPr>
       <t>18</t>
     </r>
     <r>
@@ -73,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -100,8 +105,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Courier New"/>
-      <family val="3"/>
       <charset val="0"/>
     </font>
     <font>
@@ -112,7 +122,6 @@
     <font>
       <sz val="10"/>
       <name val="Courier New"/>
-      <family val="3"/>
       <charset val="0"/>
     </font>
     <font>
@@ -122,9 +131,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,28 +213,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -167,36 +221,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,68 +273,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -287,31 +289,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,31 +445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,115 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,26 +530,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,39 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,156 +570,206 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -776,28 +778,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,42 +1124,51 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="22.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="21.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="30.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="19.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="22.2" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" ht="14.4" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
